--- a/result_hammingloss.xlsx
+++ b/result_hammingloss.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18000" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -345,13 +344,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -364,6 +363,26 @@
           <t>TESTIFY</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>indexType:</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>term 100</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>idf: default</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -390,7 +409,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alien</t>
+          <t>Titanic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -398,32 +417,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Action', 'Horror', 'Sci-Fi', 'Thriller']</t>
+          <t>['Romance', 'Drama']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Adventure', 'Fantasy', 'Horror', 'Sci-Fi']</t>
+          <t>['Action', 'Adventure']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>Total-Recall</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Action', 'Horror', 'Sci-Fi']</t>
+          <t>['Sci-Fi', 'Adventure', 'Action', 'Thriller']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Comedy', 'Crime', 'Family']</t>
+          <t>['Action', 'Horror', 'Sci-Fi', 'Thriller']</t>
         </is>
       </c>
     </row>
@@ -434,7 +453,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -443,194 +462,194 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Fantasy', 'Horror']</t>
+          <t>['Action', 'Drama']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hackers</t>
+          <t>Inglourious-Basterds</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Action', 'Crime', 'Drama', 'Thriller']</t>
+          <t>['Adventure', 'Action']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Adventure', 'Fantasy', 'Horror', 'Sci-Fi']</t>
+          <t>['Drama', 'Thriller']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hostage</t>
+          <t>Mad-Max-2-The-Road-Warrior</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Action', 'Crime', 'Drama', 'Thriller']</t>
+          <t>['Sci-Fi', 'Adventure', 'Action']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Adventure', 'Fantasy', 'Horror', 'Mystery']</t>
+          <t>['Action', 'Comedy', 'Sci-Fi']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Inglourious-Basterds</t>
+          <t>Hackers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure']</t>
+          <t>['Action', 'Thriller', 'Crime', 'Drama']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Fantasy', 'Horror']</t>
+          <t>['Comedy', 'Drama', 'Romance', 'Sci-Fi']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jurassic-Park-The-Lost-World</t>
+          <t>War-Horse</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Horror', 'Sci-Fi', 'Thriller']</t>
+          <t>['Drama']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Animation', 'Comedy', 'Crime', 'Drama', 'Family']</t>
+          <t>['Adventure']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lord-of-the-Rings-The-Two-Towers</t>
+          <t>Yes-Man</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Fantasy']</t>
+          <t>['Romance', 'Comedy']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Comedy', 'Crime', 'Family']</t>
+          <t>['Animation', 'Family']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mad-Max-2-The-Road-Warrior</t>
+          <t>Lord-of-the-Rings-The-Two-Towers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Sci-Fi']</t>
+          <t>['Adventure', 'Action', 'Fantasy']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['Comedy', 'Crime', 'Family']</t>
+          <t>['Adventure', 'Fantasy', 'Sci-Fi']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thor</t>
+          <t>Hostage</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Fantasy']</t>
+          <t>['Action', 'Thriller', 'Crime', 'Drama']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['Comedy', 'Crime', 'Family']</t>
+          <t>['Crime', 'Mystery', 'Romance', 'Thriller']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Titanic</t>
+          <t>Blade</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Drama', 'Romance']</t>
+          <t>['Sci-Fi', 'Horror', 'Action']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['Comedy', 'Crime']</t>
+          <t>['Action', 'Adventure', 'Horror']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total-Recall</t>
+          <t>Jurassic-Park-The-Lost-World</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Action', 'Adventure', 'Sci-Fi', 'Thriller']</t>
+          <t>['Sci-Fi', 'Adventure', 'Horror', 'Action', 'Thriller']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['Comedy', 'Crime', 'Drama', 'Family']</t>
+          <t>['Action', 'Adventure', 'Family', 'Horror', 'Thriller']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>War-Horse</t>
+          <t>Alien</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -638,19 +657,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['Drama']</t>
+          <t>['Sci-Fi', 'Horror', 'Action', 'Thriller']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['Horror']</t>
+          <t>['Action', 'Adventure', 'Horror', 'Sci-Fi']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Yes-Man</t>
+          <t>Thor</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -658,12 +677,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Comedy', 'Romance']</t>
+          <t>['Adventure', 'Action', 'Fantasy']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Comedy', 'Mystery']</t>
+          <t>['Action', 'Adventure', 'Romance']</t>
         </is>
       </c>
     </row>
@@ -674,7 +693,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2197802197802198</v>
       </c>
     </row>
     <row r="18">
@@ -684,6 +703,342 @@
         </is>
       </c>
       <c r="B18" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TESTIFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hamming Loss</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Actual Genre</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Predict Genre</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Romance', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Total-Recall</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Adventure', 'Action', 'Thriller']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Mystery', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Godfather</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Crime', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Crime', 'Drama']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Inglourious-Basterds</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Action']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Drama']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mad-Max-2-The-Road-Warrior</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Adventure', 'Action']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Comedy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hackers</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Action', 'Thriller', 'Crime', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['Comedy', 'Crime', 'Drama', 'Romance']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>War-Horse</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['Drama']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Adventure']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Yes-Man</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['Romance', 'Comedy']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['Animation', 'Family']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lord-of-the-Rings-The-Two-Towers</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Action', 'Fantasy']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Fantasy', 'Mystery']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hostage</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['Action', 'Thriller', 'Crime', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['Crime', 'Drama', 'Mystery', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Blade</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Horror', 'Action']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['Horror', 'Sci-Fi', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jurassic-Park-The-Lost-World</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Adventure', 'Horror', 'Action', 'Thriller']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Family', 'Fantasy', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alien</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Horror', 'Action', 'Thriller']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Mystery', 'Sci-Fi']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Thor</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Action', 'Fantasy']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Fantasy', 'Mystery']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>average hl</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2087912087912088</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>#########</t>
         </is>

--- a/result_hammingloss.xlsx
+++ b/result_hammingloss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0F8BA-B49A-1C47-95A6-CDE1752688B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A45713-B13A-2349-8A0E-3BE50D85A41E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,6 +67,9 @@
     <t>['Action', 'Adventure']</t>
   </si>
   <si>
+    <t>['Adventure', 'Family']</t>
+  </si>
+  <si>
     <t>Total-Recall</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>['Action', 'Adventure', 'Drama']</t>
   </si>
   <si>
+    <t>['Action', 'Adventure', 'Comedy']</t>
+  </si>
+  <si>
     <t>Hackers</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>['Action', 'Comedy', 'Drama', 'Sci-Fi']</t>
   </si>
   <si>
+    <t>['Comedy', 'Crime', 'Drama', 'Romance']</t>
+  </si>
+  <si>
     <t>War-Horse</t>
   </si>
   <si>
@@ -226,9 +235,6 @@
     <t>idf default</t>
   </si>
   <si>
-    <t>['Adventure', 'Family']</t>
-  </si>
-  <si>
     <t>['Action', 'Adventure', 'Mystery', 'Thriller']</t>
   </si>
   <si>
@@ -241,15 +247,9 @@
     <t>['Comedy', 'Romance']</t>
   </si>
   <si>
-    <t>['Action', 'Adventure', 'Comedy']</t>
-  </si>
-  <si>
     <t>['Action', 'Adventure', 'Thriller']</t>
   </si>
   <si>
-    <t>['Comedy', 'Crime', 'Drama', 'Romance']</t>
-  </si>
-  <si>
     <t>['Action', 'Adventure', 'Fantasy']</t>
   </si>
   <si>
@@ -292,6 +292,9 @@
     <t>['Family', 'Romance']</t>
   </si>
   <si>
+    <t>['Crime', 'Romance']</t>
+  </si>
+  <si>
     <t>['Action', 'Thriller']</t>
   </si>
   <si>
@@ -356,9 +359,6 @@
   </si>
   <si>
     <t>['Adventure', 'Drama', 'Romance']</t>
-  </si>
-  <si>
-    <t>['Crime', 'Romance']</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,680 +858,680 @@
         <v>13</v>
       </c>
       <c r="AB4" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.15384615384615391</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
         <v>16</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>15</v>
-      </c>
       <c r="R5">
         <v>0.15384615384615391</v>
       </c>
       <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" t="s">
         <v>16</v>
       </c>
-      <c r="T5" t="s">
+      <c r="Z5">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="s">
         <v>19</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z5">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0.15384615384615391</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="s">
         <v>21</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="S6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>20</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.30769230769230771</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>23</v>
-      </c>
       <c r="R7">
         <v>0.30769230769230771</v>
       </c>
       <c r="S7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" t="s">
         <v>24</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Z7">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" t="s">
         <v>27</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0.15384615384615391</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J8">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="K8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
+      <c r="R8">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="Y8" t="s">
         <v>29</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Z8">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="AA8" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>29</v>
-      </c>
       <c r="AB8" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0.46153846153846162</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
       </c>
       <c r="J9">
         <v>0.46153846153846162</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="S9" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z9">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB9" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0.15384615384615391</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>0.15384615384615391</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R10">
         <v>0.15384615384615391</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z10">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0.30769230769230771</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>0.30769230769230771</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R11">
         <v>0.30769230769230771</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z11">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0.15384615384615391</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>0.15384615384615391</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R12">
         <v>0.15384615384615391</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" t="s">
-        <v>43</v>
-      </c>
       <c r="Z12">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0.30769230769230771</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>0.30769230769230771</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R13">
         <v>0.30769230769230771</v>
       </c>
       <c r="S13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z13">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0.15384615384615391</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>0.15384615384615391</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
       <c r="R14">
         <v>0.15384615384615391</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Y14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z14">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0.15384615384615391</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>0.15384615384615391</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" t="s">
-        <v>54</v>
-      </c>
       <c r="R15">
         <v>0.30769230769230771</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="AA15" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z15">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>55</v>
-      </c>
       <c r="AB15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>0.15384615384615391</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J16">
         <v>0.30769230769230771</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R16">
         <v>0.15384615384615391</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z16">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0.15384615384615391</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J17">
         <v>0.15384615384615391</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R17">
         <v>0.15384615384615391</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Z17">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>0.2197802197802198</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J18">
         <v>0.23076923076923081</v>
       </c>
       <c r="Q18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R18">
         <v>0.2197802197802198</v>
       </c>
       <c r="Y18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z18">
         <v>0.2087912087912088</v>
@@ -1545,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
         <v>2</v>
@@ -1574,13 +1574,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
@@ -1674,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="Q22" t="s">
         <v>12</v>
@@ -1698,204 +1698,204 @@
         <v>13</v>
       </c>
       <c r="AB22" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>0.15384615384615391</v>
       </c>
       <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
       <c r="J23">
         <v>0.15384615384615391</v>
       </c>
       <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" t="s">
         <v>16</v>
       </c>
-      <c r="L23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>15</v>
-      </c>
       <c r="R23">
         <v>0.15384615384615391</v>
       </c>
       <c r="S23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" t="s">
         <v>16</v>
       </c>
-      <c r="T23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>15</v>
-      </c>
       <c r="Z23">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" t="s">
         <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="s">
         <v>21</v>
       </c>
-      <c r="L24" t="s">
+      <c r="R24">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y24" t="s">
         <v>21</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="S24" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>20</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0.30769230769230771</v>
       </c>
       <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
       <c r="J25">
         <v>0.30769230769230771</v>
       </c>
       <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" t="s">
         <v>24</v>
       </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>23</v>
-      </c>
       <c r="R25">
         <v>0.30769230769230771</v>
       </c>
       <c r="S25" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s">
         <v>24</v>
       </c>
-      <c r="T25" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>23</v>
-      </c>
       <c r="Z25">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0.15384615384615391</v>
       </c>
       <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
       <c r="J26">
         <v>0.15384615384615391</v>
       </c>
       <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q26" t="s">
         <v>29</v>
       </c>
-      <c r="L26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>28</v>
-      </c>
       <c r="R26">
         <v>0.15384615384615391</v>
       </c>
       <c r="S26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26" t="s">
         <v>29</v>
       </c>
-      <c r="T26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>28</v>
-      </c>
       <c r="Z26">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB26" t="s">
         <v>76</v>
@@ -1903,299 +1903,299 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0.30769230769230771</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>0.30769230769230771</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Q27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R27">
         <v>0.30769230769230771</v>
       </c>
       <c r="S27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z27">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>0.15384615384615391</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>0.15384615384615391</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R28">
         <v>0.15384615384615391</v>
       </c>
       <c r="S28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z28">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>0.30769230769230771</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>0.30769230769230771</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R29">
         <v>0.30769230769230771</v>
       </c>
       <c r="S29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z29">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>0.15384615384615391</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
         <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>43</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L30" t="s">
         <v>76</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R30">
         <v>0.15384615384615391</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y30" t="s">
         <v>46</v>
       </c>
-      <c r="Y30" t="s">
-        <v>43</v>
-      </c>
       <c r="Z30">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>0.15384615384615391</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>0.30769230769230771</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R31">
         <v>0.15384615384615391</v>
       </c>
       <c r="S31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T31" t="s">
         <v>77</v>
       </c>
       <c r="Y31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z31">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>0.15384615384615391</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
         <v>79</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R32">
         <v>0.15384615384615391</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
         <v>78</v>
       </c>
       <c r="Y32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB32" t="s">
         <v>79</v>
@@ -2203,149 +2203,149 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>0.30769230769230771</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>0.15384615384615391</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" t="s">
         <v>57</v>
       </c>
-      <c r="Q33" t="s">
-        <v>54</v>
-      </c>
       <c r="R33">
         <v>0.30769230769230771</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
         <v>80</v>
       </c>
       <c r="Y33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z33">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>0.30769230769230771</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J34">
         <v>0.30769230769230771</v>
       </c>
       <c r="K34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R34">
         <v>0.30769230769230771</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T34" t="s">
         <v>81</v>
       </c>
       <c r="Y34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z34">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>0.15384615384615391</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J35">
         <v>0.15384615384615391</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
         <v>82</v>
       </c>
       <c r="Q35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R35">
         <v>0.30769230769230771</v>
       </c>
       <c r="S35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T35" t="s">
         <v>83</v>
       </c>
       <c r="Y35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Z35">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB35" t="s">
         <v>82</v>
@@ -2353,25 +2353,25 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>0.2087912087912088</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J36">
         <v>0.18681318681318679</v>
       </c>
       <c r="Q36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R36">
         <v>0.23076923076923081</v>
       </c>
       <c r="Y36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z36">
         <v>0.19780219780219779</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
         <v>2</v>
@@ -2417,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
         <v>84</v>
@@ -2546,49 +2546,49 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41">
         <v>0.30769230769230771</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
         <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J41">
         <v>0.15384615384615391</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s">
         <v>87</v>
       </c>
       <c r="Q41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>0.15384615384615391</v>
       </c>
       <c r="S41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T41" t="s">
         <v>87</v>
       </c>
       <c r="Y41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z41">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB41" t="s">
         <v>87</v>
@@ -2596,149 +2596,149 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0.15384615384615391</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" t="s">
         <v>21</v>
       </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>20</v>
-      </c>
       <c r="R42">
         <v>0.30769230769230771</v>
       </c>
       <c r="S42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T42" t="s">
         <v>89</v>
       </c>
       <c r="Y42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z42">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB42" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>0.30769230769230771</v>
       </c>
       <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
         <v>24</v>
       </c>
-      <c r="D43" t="s">
+      <c r="J43">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K43" t="s">
         <v>25</v>
       </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q43" t="s">
         <v>24</v>
       </c>
-      <c r="L43" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>23</v>
-      </c>
       <c r="R43">
         <v>0.15384615384615391</v>
       </c>
       <c r="S43" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y43" t="s">
         <v>24</v>
       </c>
-      <c r="T43" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>23</v>
-      </c>
       <c r="Z43">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>0.15384615384615391</v>
       </c>
       <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" t="s">
         <v>29</v>
       </c>
-      <c r="D44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" t="s">
-        <v>28</v>
-      </c>
       <c r="J44">
         <v>0.15384615384615391</v>
       </c>
       <c r="K44" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q44" t="s">
         <v>29</v>
       </c>
-      <c r="L44" t="s">
+      <c r="R44">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="S44" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" t="s">
         <v>92</v>
       </c>
-      <c r="Q44" t="s">
-        <v>28</v>
-      </c>
-      <c r="R44">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="Y44" t="s">
         <v>29</v>
-      </c>
-      <c r="T44" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>28</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB44" t="s">
         <v>82</v>
@@ -2746,199 +2746,199 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>0.30769230769230771</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J45">
         <v>0.30769230769230771</v>
       </c>
       <c r="K45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Q45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R45">
         <v>0.46153846153846162</v>
       </c>
       <c r="S45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z45">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB45" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>0.15384615384615391</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>0.15384615384615391</v>
       </c>
       <c r="K46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R46">
         <v>0.15384615384615391</v>
       </c>
       <c r="S46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z46">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>0.30769230769230771</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>0.30769230769230771</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R47">
         <v>0.30769230769230771</v>
       </c>
       <c r="S47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z47">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L48" t="s">
         <v>76</v>
       </c>
       <c r="Q48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T48" t="s">
         <v>76</v>
       </c>
       <c r="Y48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB48" t="s">
         <v>76</v>
@@ -2946,249 +2946,249 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>0.15384615384615391</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>0.30769230769230771</v>
       </c>
       <c r="K49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R49">
         <v>0.15384615384615391</v>
       </c>
       <c r="S49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z49">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>0.30769230769230771</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>0.15384615384615391</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L50" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="S50" t="s">
+        <v>54</v>
+      </c>
+      <c r="T50" t="s">
         <v>97</v>
       </c>
-      <c r="Q50" t="s">
-        <v>50</v>
-      </c>
-      <c r="R50">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="S50" t="s">
-        <v>51</v>
-      </c>
-      <c r="T50" t="s">
-        <v>96</v>
-      </c>
       <c r="Y50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z50">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R51">
         <v>0.15384615384615391</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z51">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>0.15384615384615391</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J52">
         <v>0.15384615384615391</v>
       </c>
       <c r="K52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R52">
         <v>0.15384615384615391</v>
       </c>
       <c r="S52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z52">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>0.30769230769230771</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J53">
         <v>0.15384615384615391</v>
       </c>
       <c r="K53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L53" t="s">
         <v>82</v>
       </c>
       <c r="Q53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R53">
         <v>0.30769230769230771</v>
       </c>
       <c r="S53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Z53">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA53" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB53" t="s">
         <v>82</v>
@@ -3196,25 +3196,25 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>0.2087912087912088</v>
       </c>
       <c r="I54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J54">
         <v>0.17582417582417581</v>
       </c>
       <c r="Q54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R54">
         <v>0.2197802197802198</v>
       </c>
       <c r="Y54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z54">
         <v>0.18681318681318679</v>
@@ -3228,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I55" t="s">
         <v>2</v>
@@ -3260,10 +3260,10 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -3348,7 +3348,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -3372,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="T58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y58" t="s">
         <v>12</v>
@@ -3389,399 +3389,399 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59">
         <v>0.30769230769230771</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59">
         <v>0.30769230769230771</v>
       </c>
       <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" t="s">
         <v>16</v>
       </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>15</v>
-      </c>
       <c r="R59">
         <v>0.30769230769230771</v>
       </c>
       <c r="S59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T59" t="s">
         <v>86</v>
       </c>
       <c r="Y59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z59">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
         <v>21</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q60" t="s">
         <v>21</v>
       </c>
-      <c r="L60" t="s">
+      <c r="R60">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="S60" t="s">
+        <v>22</v>
+      </c>
+      <c r="T60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y60" t="s">
         <v>21</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60">
-        <v>0.15384615384615391</v>
-      </c>
-      <c r="S60" t="s">
-        <v>21</v>
-      </c>
-      <c r="T60" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>20</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>0.30769230769230771</v>
       </c>
       <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
         <v>24</v>
       </c>
-      <c r="D61" t="s">
+      <c r="J61">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K61" t="s">
         <v>25</v>
       </c>
-      <c r="I61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q61" t="s">
         <v>24</v>
       </c>
-      <c r="L61" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>23</v>
-      </c>
       <c r="R61">
         <v>0.30769230769230771</v>
       </c>
       <c r="S61" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y61" t="s">
         <v>24</v>
       </c>
-      <c r="T61" t="s">
+      <c r="Z61">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="AA61" t="s">
         <v>25</v>
       </c>
-      <c r="Y61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z61">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>24</v>
-      </c>
       <c r="AB61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B62">
         <v>0.30769230769230771</v>
       </c>
       <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" t="s">
         <v>29</v>
       </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" t="s">
-        <v>28</v>
-      </c>
       <c r="J62">
         <v>0.15384615384615391</v>
       </c>
       <c r="K62" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q62" t="s">
         <v>29</v>
       </c>
-      <c r="L62" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>28</v>
-      </c>
       <c r="R62">
         <v>0.15384615384615391</v>
       </c>
       <c r="S62" t="s">
+        <v>30</v>
+      </c>
+      <c r="T62" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s">
         <v>29</v>
       </c>
-      <c r="T62" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>28</v>
-      </c>
       <c r="Z62">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B63">
         <v>0.15384615384615391</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J63">
         <v>0.30769230769230771</v>
       </c>
       <c r="K63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L63" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Q63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R63">
         <v>0.30769230769230771</v>
       </c>
       <c r="S63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z63">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB63" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>0.15384615384615391</v>
       </c>
       <c r="K64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z64">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AB64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>0.30769230769230771</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>0.15384615384615391</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R65">
         <v>0.30769230769230771</v>
       </c>
       <c r="S65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z65">
         <v>0.30769230769230771</v>
       </c>
       <c r="AA65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L66" t="s">
         <v>76</v>
       </c>
       <c r="Q66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T66" t="s">
         <v>76</v>
       </c>
       <c r="Y66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB66" t="s">
         <v>76</v>
@@ -3789,49 +3789,49 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>0.15384615384615391</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>0.30769230769230771</v>
       </c>
       <c r="K67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R67">
         <v>0.15384615384615391</v>
       </c>
       <c r="S67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z67">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB67" t="s">
         <v>77</v>
@@ -3839,199 +3839,199 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B68">
         <v>0.15384615384615391</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J68">
         <v>0.15384615384615391</v>
       </c>
       <c r="K68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R68">
         <v>0.15384615384615391</v>
       </c>
       <c r="S68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z68">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA68" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B69">
         <v>0.15384615384615391</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R69">
         <v>0.15384615384615391</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
       <c r="AA69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B70">
         <v>0.15384615384615391</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R70">
         <v>0.15384615384615391</v>
       </c>
       <c r="S70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z70">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>0.30769230769230771</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J71">
         <v>0.15384615384615391</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R71">
         <v>0.30769230769230771</v>
       </c>
       <c r="S71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Z71">
         <v>0.15384615384615391</v>
       </c>
       <c r="AA71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AB71" t="s">
         <v>82</v>
@@ -4039,25 +4039,25 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>0.18681318681318679</v>
       </c>
       <c r="I72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J72">
         <v>0.1648351648351648</v>
       </c>
       <c r="Q72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R72">
         <v>0.19780219780219779</v>
       </c>
       <c r="Y72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z72">
         <v>0.17582417582417581</v>

--- a/result_hammingloss.xlsx
+++ b/result_hammingloss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76AF707-3B91-BE4C-ACE4-980AA6F4E0DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A34B0-7584-8E4F-8623-29254927EC00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="-28340" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +393,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -502,6 +510,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A93"/>
+    <sheetView tabSelected="1" topLeftCell="T75" zoomScale="157" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X85" sqref="X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>60</v>
@@ -1829,34 +1838,57 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>0.2197802197802198</v>
       </c>
-      <c r="J18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="9">
         <v>0.23076923076923081</v>
       </c>
-      <c r="R18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="9">
         <v>0.2197802197802198</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="9">
         <v>0.2087912087912088</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>1</v>
@@ -1883,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1909,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -1962,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>111</v>
       </c>
@@ -2015,7 +2047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>11</v>
@@ -2066,7 +2098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>16</v>
@@ -2117,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>19</v>
@@ -2168,7 +2200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>24</v>
@@ -2219,7 +2251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>29</v>
@@ -2270,7 +2302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>35</v>
@@ -2321,7 +2353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>38</v>
@@ -2372,7 +2404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>41</v>
@@ -2423,7 +2455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>45</v>
@@ -2474,7 +2506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>48</v>
@@ -2525,7 +2557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>52</v>
@@ -2576,7 +2608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>57</v>
@@ -2627,7 +2659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>60</v>
@@ -2678,34 +2710,56 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>0.2087912087912088</v>
       </c>
-      <c r="J36" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="9">
         <v>0.18681318681318679</v>
       </c>
-      <c r="R36" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="9">
         <v>0.23076923076923081</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="9">
         <v>0.19780219780219779</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+    </row>
+    <row r="37" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>1</v>
@@ -2732,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -2758,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -2811,7 +2865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -2864,7 +2918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>11</v>
@@ -2915,7 +2969,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>16</v>
@@ -2966,7 +3020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>19</v>
@@ -3017,7 +3071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>24</v>
@@ -3068,7 +3122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>29</v>
@@ -3119,7 +3173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>35</v>
@@ -3170,7 +3224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>38</v>
@@ -3221,7 +3275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>41</v>
@@ -3272,7 +3326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>45</v>
@@ -3323,7 +3377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>48</v>
@@ -3374,7 +3428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>52</v>
@@ -3425,7 +3479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>57</v>
@@ -3476,7 +3530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
         <v>60</v>
@@ -3527,34 +3581,55 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" t="s">
+      <c r="B54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>0.2087912087912088</v>
       </c>
-      <c r="J54" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="9">
         <v>0.17582417582417581</v>
       </c>
-      <c r="R54" t="s">
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="9">
         <v>0.2197802197802198</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="9">
         <v>0.18681318681318679</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+    </row>
+    <row r="55" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>1</v>
@@ -3581,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -3607,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3660,7 +3735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -3713,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
         <v>11</v>
@@ -3764,7 +3839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
         <v>16</v>
@@ -3815,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
         <v>19</v>
@@ -3866,7 +3941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
         <v>24</v>
@@ -3917,7 +3992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
         <v>29</v>
@@ -3968,7 +4043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
         <v>35</v>
@@ -4019,7 +4094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
         <v>38</v>
@@ -4070,7 +4145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
         <v>41</v>
@@ -4121,7 +4196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" t="s">
         <v>45</v>
@@ -4172,7 +4247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
         <v>48</v>
@@ -4223,7 +4298,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
         <v>52</v>
@@ -4274,7 +4349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>57</v>
@@ -4325,7 +4400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>60</v>
@@ -4376,34 +4451,56 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" t="s">
+      <c r="B72" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="9">
         <v>0.18681318681318679</v>
       </c>
-      <c r="J72" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="9">
         <v>0.1648351648351648</v>
       </c>
-      <c r="R72" t="s">
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="9">
         <v>0.19780219780219779</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA72">
+      <c r="AA72" s="9">
         <v>0.17582417582417581</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+    </row>
+    <row r="73" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>1</v>
@@ -4430,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>1</v>
       </c>
@@ -4456,7 +4553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>112</v>
       </c>
@@ -4509,7 +4606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
@@ -4562,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>11</v>
@@ -4613,7 +4710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
         <v>16</v>
@@ -4664,7 +4761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>19</v>
@@ -4715,7 +4812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" t="s">
         <v>24</v>
@@ -4766,7 +4863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>29</v>
@@ -4817,7 +4914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
         <v>35</v>
@@ -4868,7 +4965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>38</v>
@@ -4919,7 +5016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
         <v>41</v>
@@ -4970,7 +5067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>45</v>
@@ -5021,7 +5118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
         <v>48</v>
@@ -5072,7 +5169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
         <v>52</v>
@@ -5123,7 +5220,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
         <v>57</v>
@@ -5174,7 +5271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
         <v>60</v>
@@ -5225,34 +5322,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
-      <c r="B90" t="s">
+      <c r="B90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="9">
         <v>0.19780219780219779</v>
       </c>
-      <c r="J90" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="9">
         <v>0.1648351648351648</v>
       </c>
-      <c r="R90" t="s">
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="9">
         <v>0.1648351648351648</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA90">
+      <c r="AA90" s="9">
         <v>0.1648351648351648</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+    </row>
+    <row r="91" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>1</v>
@@ -5279,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/result_hammingloss.xlsx
+++ b/result_hammingloss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A34B0-7584-8E4F-8623-29254927EC00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CC0BF-3C6E-0441-9395-34F2052FF3FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +401,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -511,6 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T75" zoomScale="157" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X85" sqref="X85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="157" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5327,43 +5336,43 @@
       <c r="B90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="10">
         <v>0.19780219780219779</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K90" s="10">
         <v>0.1648351648351648</v>
       </c>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9" t="s">
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S90" s="9">
+      <c r="S90" s="10">
         <v>0.1648351648351648</v>
       </c>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="9" t="s">
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AA90" s="9">
+      <c r="AA90" s="10">
         <v>0.1648351648351648</v>
       </c>
       <c r="AB90" s="9"/>

--- a/result_hammingloss.xlsx
+++ b/result_hammingloss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CC0BF-3C6E-0441-9395-34F2052FF3FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE961F-7791-0B4D-9F95-427CE5918F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="121">
   <si>
     <t>idf: Default</t>
   </si>
@@ -368,13 +368,28 @@
   </si>
   <si>
     <t>GenreVectorSize : 700</t>
+  </si>
+  <si>
+    <t>Indexed : 700</t>
+  </si>
+  <si>
+    <t>Indexed : 500</t>
+  </si>
+  <si>
+    <t>Indexed : 300</t>
+  </si>
+  <si>
+    <t>Indexed : 100</t>
+  </si>
+  <si>
+    <t>Only Index Noun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +413,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -407,7 +429,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -508,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -518,8 +564,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,15 +1054,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="157" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U82" sqref="U82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1746,7 +1798,6 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1796,8 +1847,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:34" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -1847,57 +1900,61 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:34" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>0.2197802197802198</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="10">
         <v>0.23076923076923081</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9" t="s">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="10">
         <v>0.2197802197802198</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9" t="s">
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="10">
         <v>0.2087912087912088</v>
       </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-    </row>
-    <row r="19" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+    </row>
+    <row r="19" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>1</v>
@@ -1924,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -2003,7 +2060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>111</v>
       </c>
@@ -2056,7 +2113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>11</v>
@@ -2107,7 +2164,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>16</v>
@@ -2158,7 +2215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>19</v>
@@ -2209,7 +2266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>24</v>
@@ -2260,7 +2317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>29</v>
@@ -2311,7 +2368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>35</v>
@@ -2362,7 +2419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>38</v>
@@ -2413,7 +2470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>41</v>
@@ -2464,7 +2521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>45</v>
@@ -2515,7 +2572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>48</v>
@@ -2566,7 +2623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>52</v>
@@ -2617,7 +2674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>57</v>
@@ -2668,7 +2725,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>60</v>
@@ -2719,56 +2776,61 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:34" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>0.2087912087912088</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="10">
         <v>0.18681318681318679</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9" t="s">
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="10">
         <v>0.23076923076923081</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9" t="s">
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="10">
         <v>0.19780219780219779</v>
       </c>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-    </row>
-    <row r="37" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+    </row>
+    <row r="37" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>1</v>
@@ -2795,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>112</v>
       </c>
@@ -2874,7 +2936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -2927,7 +2989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>11</v>
@@ -2978,7 +3040,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>16</v>
@@ -3029,7 +3091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>19</v>
@@ -3080,7 +3142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>24</v>
@@ -3131,7 +3193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>29</v>
@@ -3182,7 +3244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>35</v>
@@ -3233,7 +3295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>38</v>
@@ -3284,7 +3346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>41</v>
@@ -3335,7 +3397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>45</v>
@@ -3386,7 +3448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>48</v>
@@ -3437,7 +3499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>52</v>
@@ -3488,7 +3550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>57</v>
@@ -3539,7 +3601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
         <v>60</v>
@@ -3590,55 +3652,60 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="12">
         <v>0.2087912087912088</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="13">
         <v>0.17582417582417581</v>
       </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9" t="s">
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S54" s="13">
         <v>0.2197802197802198</v>
       </c>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9" t="s">
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AA54" s="9">
+      <c r="AA54" s="13">
         <v>0.18681318681318679</v>
       </c>
-      <c r="AB54" s="9"/>
-      <c r="AC54" s="9"/>
-      <c r="AD54" s="9"/>
-    </row>
-    <row r="55" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+    </row>
+    <row r="55" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>1</v>
@@ -3665,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -3691,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3744,7 +3811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -3797,7 +3864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" t="s">
         <v>11</v>
@@ -3848,7 +3915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" t="s">
         <v>16</v>
@@ -3899,7 +3966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" t="s">
         <v>19</v>
@@ -3950,7 +4017,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
         <v>24</v>
@@ -4001,7 +4068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" t="s">
         <v>29</v>
@@ -4052,7 +4119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" t="s">
         <v>35</v>
@@ -4103,7 +4170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" t="s">
         <v>38</v>
@@ -4154,7 +4221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
         <v>41</v>
@@ -4205,7 +4272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" t="s">
         <v>45</v>
@@ -4256,7 +4323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" t="s">
         <v>48</v>
@@ -4307,7 +4374,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" t="s">
         <v>52</v>
@@ -4358,7 +4425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
         <v>57</v>
@@ -4409,7 +4476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
         <v>60</v>
@@ -4460,56 +4527,60 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="1:33" ht="26" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="13">
         <v>0.18681318681318679</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="13">
         <v>0.1648351648351648</v>
       </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9" t="s">
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="S72" s="9">
+      <c r="S72" s="13">
         <v>0.19780219780219779</v>
       </c>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9" t="s">
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AA72" s="9">
+      <c r="AA72" s="13">
         <v>0.17582417582417581</v>
       </c>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-    </row>
-    <row r="73" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+    </row>
+    <row r="73" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>1</v>
@@ -4536,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>1</v>
       </c>
@@ -4562,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>112</v>
       </c>
@@ -4615,7 +4686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
@@ -4668,7 +4739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" t="s">
         <v>11</v>
@@ -4719,7 +4790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" t="s">
         <v>16</v>
@@ -4770,7 +4841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
         <v>19</v>
@@ -4821,7 +4892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" t="s">
         <v>24</v>
@@ -4872,7 +4943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
         <v>29</v>
@@ -4923,7 +4994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" t="s">
         <v>35</v>
@@ -4974,7 +5045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" t="s">
         <v>38</v>
@@ -5025,7 +5096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" t="s">
         <v>41</v>
@@ -5076,7 +5147,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
         <v>45</v>
@@ -5127,7 +5198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
         <v>48</v>
@@ -5178,7 +5249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" t="s">
         <v>52</v>
@@ -5229,7 +5300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" t="s">
         <v>57</v>
@@ -5280,7 +5351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
         <v>60</v>
@@ -5331,56 +5402,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:34" ht="26" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="14">
         <v>0.19780219780219779</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K90" s="15">
         <v>0.1648351648351648</v>
       </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10" t="s">
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="S90" s="10">
+      <c r="S90" s="13">
         <v>0.1648351648351648</v>
       </c>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
-      <c r="Z90" s="10" t="s">
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA90" s="10">
+      <c r="AA90" s="13">
         <v>0.1648351648351648</v>
       </c>
-      <c r="AB90" s="9"/>
-      <c r="AC90" s="9"/>
-      <c r="AD90" s="9"/>
-      <c r="AE90" s="9"/>
-    </row>
-    <row r="91" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB90" s="10"/>
+      <c r="AC90" s="10"/>
+      <c r="AD90" s="10"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="11"/>
+      <c r="AG90" s="11"/>
+      <c r="AH90" s="11"/>
+    </row>
+    <row r="91" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" t="s">
         <v>1</v>
@@ -5407,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
